--- a/data/trans_dic/P16A04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005405682686368894</v>
+        <v>0.005396823338563363</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02342949084550405</v>
+        <v>0.02398577206098218</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.009310149854221975</v>
+        <v>0.008892200771058685</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01152763567621481</v>
+        <v>0.01123765327719211</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.008675413974154837</v>
+        <v>0.008571999543519903</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01794888160949145</v>
+        <v>0.01870776622210711</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01334927755679637</v>
+        <v>0.01252318471056699</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01600825105209599</v>
+        <v>0.0156742201500809</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.008763594970404453</v>
+        <v>0.009000633107193153</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02444661456438877</v>
+        <v>0.02406233209655959</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01320513393992296</v>
+        <v>0.01318558587868786</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01564093091058653</v>
+        <v>0.01578523993655327</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02099577473334367</v>
+        <v>0.02045542305224842</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0553188224614467</v>
+        <v>0.0565307653879806</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03126994137758136</v>
+        <v>0.03108950212623792</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03399128107499173</v>
+        <v>0.03334826482047799</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02900280346691133</v>
+        <v>0.02670165258673576</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04603942942572536</v>
+        <v>0.04639441925202679</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03609517361904829</v>
+        <v>0.03523347748659864</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03278683456976292</v>
+        <v>0.03315049722212253</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.021251376886091</v>
+        <v>0.02178169361073561</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04608158138180224</v>
+        <v>0.04417203400826109</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02934345436815183</v>
+        <v>0.0283344555635697</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02944263309900616</v>
+        <v>0.02986885087649691</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01726403556273952</v>
+        <v>0.01535903888586955</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01968522199681689</v>
+        <v>0.02107603483853458</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01105286410261676</v>
+        <v>0.01152292761482025</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01399435062387197</v>
+        <v>0.01321665451325971</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01142045337226479</v>
+        <v>0.0117559008821413</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0297954262672539</v>
+        <v>0.02974326166309527</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01406544544045057</v>
+        <v>0.01457776668735324</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0212971825000157</v>
+        <v>0.02116522907332996</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01580554599636926</v>
+        <v>0.01600700138898855</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02843291284037514</v>
+        <v>0.02844431249779293</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01549221095156619</v>
+        <v>0.01518758598445561</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01965084958337254</v>
+        <v>0.01991451577603815</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03995274679503535</v>
+        <v>0.03825474989979516</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04574890808046229</v>
+        <v>0.04598825070782147</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02827606581859501</v>
+        <v>0.02919025439239827</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03346218916106989</v>
+        <v>0.03406419023671605</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0295294929470205</v>
+        <v>0.03101946095428037</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05779713306479427</v>
+        <v>0.05667309015164839</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03401449766384869</v>
+        <v>0.03317420690675531</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03926506637961315</v>
+        <v>0.03911972805316721</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03074728522604479</v>
+        <v>0.03104151578468722</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04605826371205105</v>
+        <v>0.04746559285822221</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02805594842724757</v>
+        <v>0.02767335438214106</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03282809870686999</v>
+        <v>0.03304316454719721</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006786693676288392</v>
+        <v>0.006940735583405766</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0169326815652395</v>
+        <v>0.018139718530721</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.006572647497816262</v>
+        <v>0.005551085109751294</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01477180417867764</v>
+        <v>0.01463674646864061</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02455988590096412</v>
+        <v>0.02427855084702295</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.007590837287041614</v>
+        <v>0.007025480688322798</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.009781143285839258</v>
+        <v>0.01086004384283464</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02539492807323979</v>
+        <v>0.02523409432164865</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01846586500733631</v>
+        <v>0.01848145935955059</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0145024227314461</v>
+        <v>0.01398632767792298</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01031950664997418</v>
+        <v>0.01044380555664153</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02252640017969055</v>
+        <v>0.0220640418702982</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02438691484360732</v>
+        <v>0.02514443578724901</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04183591289720762</v>
+        <v>0.04379375308724337</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02589113808985941</v>
+        <v>0.02554455905196594</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0429654583932982</v>
+        <v>0.04202463995005772</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05304431822404942</v>
+        <v>0.05347220045314899</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02890809529094551</v>
+        <v>0.02709919066877587</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0343133487387766</v>
+        <v>0.03352567993536567</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04744887932186864</v>
+        <v>0.04814138335817011</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03391243719134424</v>
+        <v>0.03406901093648452</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0298864683919657</v>
+        <v>0.02988658372310379</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02428711537977452</v>
+        <v>0.02453961081698831</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0398874299049263</v>
+        <v>0.03914737185292314</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.02733096852036764</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.03446791028388454</v>
+        <v>0.03446791028388455</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01093610195377187</v>
+        <v>0.01080197506960388</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01188880168246671</v>
+        <v>0.01220790081893204</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01955683606248954</v>
+        <v>0.01955921388228107</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01627790087070937</v>
+        <v>0.0173912981211976</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01140767160090881</v>
+        <v>0.0116704265731672</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01706039819426286</v>
+        <v>0.01637272232776333</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01675938472012987</v>
+        <v>0.016853235295669</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03289456547853825</v>
+        <v>0.03308900966226855</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01336202088575814</v>
+        <v>0.01320175522675639</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01676266640930462</v>
+        <v>0.01629417779149812</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02039547575350613</v>
+        <v>0.02053440867309737</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02760113241389613</v>
+        <v>0.02759724781722983</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02709548971137327</v>
+        <v>0.02713363054677953</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03120349059022393</v>
+        <v>0.03269025815664896</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04265645711654429</v>
+        <v>0.04222292001925222</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03599880068237529</v>
+        <v>0.03941110554691896</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02852091434895423</v>
+        <v>0.02898009478526945</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03732325784010855</v>
+        <v>0.03611460120941895</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03701974835861237</v>
+        <v>0.03817499566708258</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05451682478116782</v>
+        <v>0.05451933959079529</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02549198567480933</v>
+        <v>0.02509689914233476</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03066039244401301</v>
+        <v>0.0300348604069862</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03512819828728966</v>
+        <v>0.03566224666815852</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04259584764641554</v>
+        <v>0.04257778965321227</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.0203674935763462</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.02326288178850716</v>
+        <v>0.02326288178850715</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.02213235544410175</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01378977435704009</v>
+        <v>0.01378810503931462</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0222599411261059</v>
+        <v>0.02210851730124338</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01607082374184086</v>
+        <v>0.01530176753567606</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01836246613602113</v>
+        <v>0.01795689111509104</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01764408954218095</v>
+        <v>0.01785189251954013</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02332279770277957</v>
+        <v>0.02321274383528633</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01769682647381617</v>
+        <v>0.01737134170840455</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0276852947226661</v>
+        <v>0.02849019274602221</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01673836752900124</v>
+        <v>0.01668753418423446</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02434214460051584</v>
+        <v>0.02447892235996506</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01837309818930853</v>
+        <v>0.01825729669033089</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02467020864503974</v>
+        <v>0.02455387965182898</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02302874057988636</v>
+        <v>0.02309209636156779</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03443947384500962</v>
+        <v>0.03460428374438442</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02537461154884219</v>
+        <v>0.02593140041387221</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02946142738698069</v>
+        <v>0.02956241436597362</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02831724624947891</v>
+        <v>0.02800115905029992</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03470268551698643</v>
+        <v>0.03546175182510768</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02875556657475938</v>
+        <v>0.02760262118059435</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03810324241767862</v>
+        <v>0.03864449078735222</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02381799864549361</v>
+        <v>0.02371886825728065</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0328924476922333</v>
+        <v>0.03301181282722718</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02566026813376164</v>
+        <v>0.02522968154873258</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03258733819540732</v>
+        <v>0.03206136476803524</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3746</v>
+        <v>3740</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16419</v>
+        <v>16808</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6282</v>
+        <v>6000</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7957</v>
+        <v>7756</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5972</v>
+        <v>5901</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>12445</v>
+        <v>12971</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8982</v>
+        <v>8426</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11731</v>
+        <v>11486</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>12106</v>
+        <v>12433</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>34081</v>
+        <v>33546</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>17796</v>
+        <v>17769</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>22257</v>
+        <v>22462</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14550</v>
+        <v>14175</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>38765</v>
+        <v>39615</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21101</v>
+        <v>20979</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>23461</v>
+        <v>23017</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19964</v>
+        <v>18380</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>31921</v>
+        <v>32168</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>24286</v>
+        <v>23706</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>24026</v>
+        <v>24292</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>29355</v>
+        <v>30088</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>64243</v>
+        <v>61581</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>39544</v>
+        <v>38185</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>41897</v>
+        <v>42503</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16605</v>
+        <v>14772</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19995</v>
+        <v>21408</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>11301</v>
+        <v>11781</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>14679</v>
+        <v>13863</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11059</v>
+        <v>11384</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>30624</v>
+        <v>30571</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>14669</v>
+        <v>15203</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>22806</v>
+        <v>22665</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>30508</v>
+        <v>30897</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>58105</v>
+        <v>58128</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>31997</v>
+        <v>31368</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>41655</v>
+        <v>42214</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>38427</v>
+        <v>36793</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>46470</v>
+        <v>46713</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>28910</v>
+        <v>29845</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>35099</v>
+        <v>35731</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>28596</v>
+        <v>30039</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>59405</v>
+        <v>58250</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>35474</v>
+        <v>34598</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>42047</v>
+        <v>41891</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>59348</v>
+        <v>59916</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>94124</v>
+        <v>96999</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>57945</v>
+        <v>57155</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>69588</v>
+        <v>70043</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4605</v>
+        <v>4709</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12810</v>
+        <v>13723</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4992</v>
+        <v>4216</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11848</v>
+        <v>11740</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>16795</v>
+        <v>16603</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5893</v>
+        <v>5454</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7678</v>
+        <v>8525</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>20612</v>
+        <v>20482</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>25157</v>
+        <v>25178</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>22230</v>
+        <v>21439</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>15939</v>
+        <v>16131</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>36352</v>
+        <v>35606</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16547</v>
+        <v>17061</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>31650</v>
+        <v>33132</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>19666</v>
+        <v>19402</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>34462</v>
+        <v>33707</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>36274</v>
+        <v>36566</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>22441</v>
+        <v>21037</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>26936</v>
+        <v>26318</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>38512</v>
+        <v>39075</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>46201</v>
+        <v>46414</v>
       </c>
       <c r="L15" s="6" t="n">
         <v>45811</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>37513</v>
+        <v>37903</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>64368</v>
+        <v>63174</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10304</v>
+        <v>10178</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>11212</v>
+        <v>11513</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>18336</v>
+        <v>18338</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>16116</v>
+        <v>17218</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11848</v>
+        <v>12121</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>17892</v>
+        <v>17171</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>17493</v>
+        <v>17591</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>36744</v>
+        <v>36961</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>26468</v>
+        <v>26150</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>33388</v>
+        <v>32455</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>40410</v>
+        <v>40686</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>58158</v>
+        <v>58150</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25530</v>
+        <v>25566</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>29426</v>
+        <v>30828</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>39993</v>
+        <v>39587</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>35641</v>
+        <v>39019</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>29622</v>
+        <v>30099</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>39143</v>
+        <v>37876</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>38640</v>
+        <v>39846</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>60897</v>
+        <v>60900</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>50495</v>
+        <v>49713</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>61070</v>
+        <v>59824</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>69601</v>
+        <v>70659</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>89753</v>
+        <v>89715</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>45169</v>
+        <v>45163</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>76042</v>
+        <v>75525</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>54550</v>
+        <v>51940</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>64843</v>
+        <v>63411</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>59623</v>
+        <v>60325</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>82708</v>
+        <v>82317</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>62727</v>
+        <v>61573</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>103330</v>
+        <v>106334</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>111389</v>
+        <v>111051</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>169478</v>
+        <v>170430</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>127489</v>
+        <v>126685</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>179194</v>
+        <v>178349</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>75431</v>
+        <v>75639</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>117649</v>
+        <v>118212</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>86130</v>
+        <v>88020</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>104037</v>
+        <v>104393</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>95690</v>
+        <v>94621</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>123063</v>
+        <v>125755</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>101925</v>
+        <v>97839</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>142213</v>
+        <v>144233</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>158502</v>
+        <v>157842</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>229008</v>
+        <v>229839</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>178054</v>
+        <v>175066</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>236701</v>
+        <v>232881</v>
       </c>
     </row>
     <row r="24">
